--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maadibi\Documents\R Projects\pollError2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48841FC-7BE9-4F98-A8AA-FF7431479857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8DC04-CFB2-4B91-9291-12A9B9701BC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{3D3C3D5C-067D-4BCA-BC93-137B832EF91F}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E117E-DAAC-47CB-990D-A264F082D0E6}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +597,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.33500000000000002</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="C2" s="4">
-        <v>0.621</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D2" s="4">
         <f>B2-C2</f>
-        <v>-0.28599999999999998</v>
+        <v>-0.10900000000000004</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="5"/>
@@ -653,14 +653,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.50700000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="C5" s="4">
-        <v>0.47899999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>2.8000000000000025E-2</v>
+        <v>3.0000000000000027E-3</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="5"/>
@@ -673,14 +673,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.65300000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="C6" s="4">
-        <v>0.32900000000000001</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.32400000000000001</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
@@ -693,14 +693,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.55400000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C7" s="4">
-        <v>0.42</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.13400000000000006</v>
+        <v>0.13200000000000006</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
@@ -713,14 +713,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.57299999999999995</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C8" s="4">
-        <v>0.41199999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.16099999999999998</v>
+        <v>0.20099999999999996</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
@@ -733,14 +733,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.93400000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="C9" s="4">
-        <v>5.1999999999999998E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.88200000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -793,14 +793,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.49099999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="C12" s="4">
-        <v>0.497</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>-6.0000000000000053E-3</v>
+        <v>3.0000000000000027E-3</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="5"/>
@@ -873,14 +873,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.55100000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="C16" s="4">
-        <v>0.43</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.12100000000000005</v>
+        <v>0.13500000000000006</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="5"/>
@@ -893,14 +893,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="C17" s="4">
-        <v>0.57599999999999996</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>-0.17099999999999993</v>
+        <v>-0.16099999999999998</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="5"/>
@@ -913,14 +913,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.41199999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="C18" s="4">
-        <v>0.56599999999999995</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>-0.15399999999999997</v>
+        <v>-0.15199999999999997</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="5"/>
@@ -933,14 +933,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>0.35699999999999998</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C19" s="4">
-        <v>0.626</v>
+        <v>0.621</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>-0.26900000000000002</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="5"/>
@@ -973,14 +973,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.65700000000000003</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="C21" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0.33200000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
@@ -993,14 +993,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>0.626</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="C22" s="4">
-        <v>0.35599999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.27</v>
+        <v>0.312</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="5"/>
@@ -1033,14 +1033,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>0.505</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="C24" s="4">
-        <v>0.48</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>2.5000000000000022E-2</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="5"/>
@@ -1093,14 +1093,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>0.39200000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="C27" s="4">
-        <v>0.59399999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>-0.20199999999999996</v>
+        <v>-0.20899999999999996</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="5"/>
@@ -1140,11 +1140,11 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="C29" s="4">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>-1.4000000000000012E-2</v>
+        <v>-1.3000000000000012E-2</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="2"/>
@@ -1177,14 +1177,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="C31" s="4">
-        <v>0.58799999999999997</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>-0.19699999999999995</v>
+        <v>-0.19499999999999995</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="5"/>
@@ -1217,14 +1217,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>0.60699999999999998</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C33" s="4">
-        <v>0.38200000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>0.22499999999999998</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5"/>
@@ -1253,14 +1253,14 @@
         <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>0.49299999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="C35" s="4">
-        <v>0.48699999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>6.0000000000000053E-3</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="5"/>
@@ -1273,14 +1273,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>0.55700000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="C36" s="4">
-        <v>0.43</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
-        <v>0.12700000000000006</v>
+        <v>0.12900000000000006</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="5"/>
@@ -1333,14 +1333,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>0.57499999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C39" s="4">
-        <v>0.40200000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>0.17299999999999993</v>
+        <v>0.16399999999999992</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="5"/>
@@ -1353,14 +1353,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>0.47899999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="C40" s="4">
-        <v>0.50900000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>-3.0000000000000027E-2</v>
+        <v>9.000000000000008E-3</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="5"/>
@@ -1373,14 +1373,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>0.59399999999999997</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C41" s="4">
-        <v>0.39200000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="0"/>
-        <v>0.20199999999999996</v>
+        <v>0.20399999999999996</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="5"/>
@@ -1393,14 +1393,14 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="C42" s="4">
-        <v>0.55300000000000005</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="0"/>
-        <v>-0.12100000000000005</v>
+        <v>-0.11700000000000005</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="5"/>
@@ -1453,14 +1453,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>0.46300000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C45" s="4">
-        <v>0.52300000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="0"/>
-        <v>-0.06</v>
+        <v>-5.7999999999999996E-2</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="5"/>
@@ -1473,14 +1473,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="4">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="C46" s="4">
-        <v>0.58499999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="0"/>
-        <v>-0.20599999999999996</v>
+        <v>-0.20199999999999996</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="5"/>
@@ -1493,14 +1493,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>0.54</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="C47" s="4">
-        <v>0.44500000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="0"/>
-        <v>9.5000000000000029E-2</v>
+        <v>9.7000000000000031E-2</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="5"/>
@@ -1533,14 +1533,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>0.60299999999999998</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C49" s="4">
-        <v>0.375</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="0"/>
-        <v>0.22799999999999998</v>
+        <v>0.19599999999999995</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maadibi\Documents\R Projects\pollError2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8DC04-CFB2-4B91-9291-12A9B9701BC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B43B6-0798-45FD-A9C2-14744166D606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{3D3C3D5C-067D-4BCA-BC93-137B832EF91F}"/>
   </bookViews>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E117E-DAAC-47CB-990D-A264F082D0E6}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D52"/>
     </sheetView>
   </sheetViews>
@@ -597,14 +597,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.42699999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4">
-        <v>0.53600000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D2" s="4">
         <f>B2-C2</f>
-        <v>-0.10900000000000004</v>
+        <v>-0.10100000000000003</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="5"/>
@@ -617,14 +617,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.36399999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>0.625</v>
+        <v>0.623</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D52" si="0">B3-C3</f>
-        <v>-0.26100000000000001</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -633,14 +633,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.34599999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="C4" s="4">
-        <v>0.626</v>
+        <v>0.624</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
@@ -673,14 +673,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.64</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>0.33900000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.30099999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
@@ -693,14 +693,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.55300000000000005</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="C7" s="4">
-        <v>0.42099999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.13200000000000006</v>
+        <v>0.13500000000000006</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
@@ -733,14 +733,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.93200000000000005</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="C9" s="4">
-        <v>5.2999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.879</v>
+        <v>0.874</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -873,14 +873,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.55800000000000005</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C16" s="4">
-        <v>0.42299999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.13500000000000006</v>
+        <v>0.16699999999999998</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="5"/>
@@ -973,14 +973,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.65600000000000003</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C21" s="4">
-        <v>0.32600000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0.33</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
@@ -993,14 +993,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>0.64700000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="C22" s="4">
-        <v>0.33500000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.312</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="5"/>
@@ -1093,14 +1093,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>0.38800000000000001</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="C27" s="4">
-        <v>0.59699999999999998</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>-0.20899999999999996</v>
+        <v>-0.17099999999999999</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="5"/>
@@ -1140,11 +1140,11 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="C29" s="4">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>-1.3000000000000012E-2</v>
+        <v>-1.4000000000000012E-2</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="2"/>
@@ -1177,14 +1177,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>0.39200000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C31" s="4">
-        <v>0.58699999999999997</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>-0.19499999999999995</v>
+        <v>-0.19099999999999995</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="5"/>
@@ -1217,14 +1217,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>0.57399999999999995</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="C33" s="4">
-        <v>0.41399999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>0.15999999999999998</v>
+        <v>0.15799999999999997</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5"/>
@@ -1237,14 +1237,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>0.54200000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="C34" s="4">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>0.10600000000000004</v>
+        <v>0.10800000000000004</v>
       </c>
       <c r="N34" s="3"/>
     </row>
@@ -1253,14 +1253,14 @@
         <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="C35" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>2.7000000000000024E-2</v>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="5"/>
@@ -1273,14 +1273,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>0.55800000000000005</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="C36" s="4">
-        <v>0.42899999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
-        <v>0.12900000000000006</v>
+        <v>0.14399999999999996</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="5"/>
@@ -1293,14 +1293,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>0.45200000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="C37" s="4">
-        <v>0.53400000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>-8.2000000000000017E-2</v>
+        <v>-7.9000000000000015E-2</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="5"/>
@@ -1333,14 +1333,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>0.56999999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="C39" s="4">
         <v>0.40600000000000003</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>0.16399999999999992</v>
+        <v>0.16299999999999992</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="5"/>
@@ -1353,14 +1353,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="C40" s="4">
-        <v>0.49</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>9.000000000000008E-3</v>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="5"/>
@@ -1373,14 +1373,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>0.59499999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C41" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="0"/>
-        <v>0.20399999999999996</v>
+        <v>0.20699999999999996</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="5"/>
@@ -1453,14 +1453,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>0.46400000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C45" s="4">
-        <v>0.52200000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="0"/>
-        <v>-5.7999999999999996E-2</v>
+        <v>-5.5999999999999994E-2</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="5"/>
@@ -1473,14 +1473,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="4">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="C46" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="0"/>
-        <v>-0.20199999999999996</v>
+        <v>-0.20499999999999996</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="5"/>
@@ -1493,14 +1493,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>0.54100000000000004</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="C47" s="4">
-        <v>0.44400000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="0"/>
-        <v>9.7000000000000031E-2</v>
+        <v>0.10100000000000003</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="5"/>
@@ -1533,14 +1533,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>0.58499999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="C49" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="0"/>
-        <v>0.19599999999999995</v>
+        <v>0.19399999999999995</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="5"/>
@@ -1573,14 +1573,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>0.29599999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="C51" s="4">
-        <v>0.68700000000000006</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="0"/>
-        <v>-0.39100000000000007</v>
+        <v>-0.38900000000000007</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="5"/>
@@ -1605,6 +1605,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maadibi\Documents\R Projects\pollError2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B43B6-0798-45FD-A9C2-14744166D606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D8F74-A3D1-4460-8E41-011AB8C0AB9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{3D3C3D5C-067D-4BCA-BC93-137B832EF91F}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E117E-DAAC-47CB-990D-A264F082D0E6}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,16 +617,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.36599999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>0.623</v>
+        <v>0.622</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D52" si="0">B3-C3</f>
-        <v>-0.25700000000000001</v>
+        <v>-0.255</v>
       </c>
       <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -673,14 +677,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.63700000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>0.34200000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.29499999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
@@ -733,14 +737,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.92900000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="C9" s="4">
         <v>5.5E-2</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.874</v>
+        <v>0.875</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -796,11 +800,11 @@
         <v>0.495</v>
       </c>
       <c r="C12" s="4">
-        <v>0.49199999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>3.0000000000000027E-3</v>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="5"/>
@@ -873,14 +877,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.57399999999999995</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="C16" s="4">
-        <v>0.40699999999999997</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.16699999999999998</v>
+        <v>0.17099999999999993</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="5"/>
@@ -973,14 +977,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>0.65700000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="C21" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>0.33200000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="5"/>
@@ -993,14 +997,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>0.65400000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="C22" s="4">
-        <v>0.32800000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.32600000000000001</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="5"/>
@@ -1013,14 +1017,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>0.52900000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C23" s="4">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>8.7000000000000022E-2</v>
+        <v>9.1000000000000025E-2</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="5"/>
@@ -1073,40 +1077,44 @@
         <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="C26" s="4">
-        <v>0.56899999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>-0.15599999999999997</v>
+        <v>-0.15399999999999997</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="N26" s="3"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>0.40799999999999997</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="C27" s="4">
-        <v>0.57899999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>-0.17099999999999999</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+        <v>-0.16499999999999998</v>
+      </c>
       <c r="N27" s="3"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1127,10 +1135,6 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1146,11 +1150,11 @@
         <f t="shared" si="0"/>
         <v>-1.4000000000000012E-2</v>
       </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1197,19 +1201,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>0.52800000000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="C32" s="4">
-        <v>0.45600000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+        <v>7.400000000000001E-2</v>
+      </c>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,11 +1220,11 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="C33" s="4">
-        <v>0.41499999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>0.15799999999999997</v>
+        <v>0.15899999999999997</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5"/>
@@ -1246,6 +1246,10 @@
         <f t="shared" si="0"/>
         <v>0.10800000000000004</v>
       </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -1273,14 +1277,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="C36" s="4">
-        <v>0.42099999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
-        <v>0.14399999999999996</v>
+        <v>0.23099999999999998</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="5"/>
@@ -1296,11 +1300,11 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="C37" s="4">
-        <v>0.53200000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>-7.9000000000000015E-2</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="5"/>
@@ -1336,11 +1340,11 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="C39" s="4">
-        <v>0.40600000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>0.16299999999999992</v>
+        <v>0.16199999999999998</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="5"/>
@@ -1373,14 +1377,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>0.59599999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C41" s="4">
-        <v>0.38900000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="0"/>
-        <v>0.20699999999999996</v>
+        <v>0.20899999999999996</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="5"/>
@@ -1433,14 +1437,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="4">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="C44" s="4">
         <v>0.60699999999999998</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="0"/>
-        <v>-0.23299999999999998</v>
+        <v>-0.23199999999999998</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="5"/>
@@ -1493,14 +1497,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C47" s="4">
         <v>0.442</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="0"/>
-        <v>0.10100000000000003</v>
+        <v>0.10200000000000004</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="5"/>
@@ -1562,11 +1566,6 @@
         <f t="shared" si="0"/>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1582,11 +1581,6 @@
         <f t="shared" si="0"/>
         <v>-0.38900000000000007</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maadibi\Documents\R Projects\pollError2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amin\Documents\R Projects\pollError2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D8F74-A3D1-4460-8E41-011AB8C0AB9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304656CC-C2C1-412C-BD63-30E857D54F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{3D3C3D5C-067D-4BCA-BC93-137B832EF91F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{3D3C3D5C-067D-4BCA-BC93-137B832EF91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -562,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211E117E-DAAC-47CB-990D-A264F082D0E6}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,14 +885,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.57599999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C16" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.17099999999999993</v>
+        <v>0.16899999999999993</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="5"/>
@@ -917,14 +925,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>0.41299999999999998</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C18" s="4">
-        <v>0.56499999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>-0.15199999999999997</v>
+        <v>-0.14600000000000007</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="5"/>
